--- a/src/test/resources/stok.xlsx
+++ b/src/test/resources/stok.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10114"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4D12B2A7-A6C7-4EBC-AF7E-967C1EFE1953}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CDB8D0A4-35CC-6D4B-996A-1E2A0CE1555C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4110" yWindow="1305" windowWidth="21600" windowHeight="11835" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="34560" windowHeight="19800" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sayfa2" sheetId="2" r:id="rId1"/>
@@ -383,16 +383,16 @@
   <dimension ref="A1:B13"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+      <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="18.85546875" customWidth="1"/>
+    <col min="1" max="1" width="18.83203125" customWidth="1"/>
     <col min="2" max="2" width="15" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -400,7 +400,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -408,7 +408,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>3</v>
       </c>
@@ -416,7 +416,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>4</v>
       </c>
@@ -424,7 +424,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>5</v>
       </c>
@@ -432,7 +432,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>6</v>
       </c>
@@ -440,7 +440,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>7</v>
       </c>
@@ -448,7 +448,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>8</v>
       </c>
@@ -456,7 +456,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>9</v>
       </c>
@@ -464,7 +464,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>11</v>
       </c>
@@ -472,7 +472,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>10</v>
       </c>
@@ -480,7 +480,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>12</v>
       </c>
@@ -488,7 +488,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>13</v>
       </c>
@@ -507,7 +507,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
